--- a/CDA/src/FOAD_MERISE/Exercice_merise.xlsx
+++ b/CDA/src/FOAD_MERISE/Exercice_merise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\CDA\CDA\src\FOAD_MERISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC24F00-5AFC-4C09-8223-00F90E109F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B23FA9E-3E4E-4017-A0CC-4BB1C3CE3ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4160D864-46C2-426C-BFE9-98B3D581EEC3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Entité</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>emprunt_id --&gt; livre_id,emprunt_nombre,emprunt_date</t>
+  </si>
+  <si>
+    <t>un client verse une caution</t>
+  </si>
+  <si>
+    <t>une caution est versé par 0 ou plusieurs clients</t>
+  </si>
+  <si>
+    <t>un client effectue 1 ou plusieurs emprunts</t>
+  </si>
+  <si>
+    <t>un emprunt peut etre effectué par un client</t>
+  </si>
+  <si>
+    <t>un client emprunte un à plusieurs livres</t>
+  </si>
+  <si>
+    <t>un livre est emprunté par 0 ou 1 client</t>
+  </si>
+  <si>
+    <t>un emprunt contient un livre</t>
+  </si>
+  <si>
+    <t>un livre peut faire partie d'un emprunt</t>
   </si>
 </sst>
 </file>
@@ -298,6 +322,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>922695</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>183172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681306</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DF66F8-EC35-4F91-AD4F-32578BF862D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4036637" y="4234960"/>
+          <a:ext cx="4118131" cy="3143251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BA325E-7487-4DC3-A1B6-9E7D7267DD73}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,8 +1151,49 @@
         <v>53</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>